--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220419_110436.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220419_110436.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>melon</t>
+    <t>Melon</t>
   </si>
   <si>
     <t>2022-04-19</t>

--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220419_110436.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220419_110436.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="276">
   <si>
     <t>사이트</t>
   </si>
@@ -757,7 +757,7 @@
     <t>YUE HUA</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>해외</t>
@@ -809,9 +809,6 @@
   </si>
   <si>
     <t>around us</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>꿈의엔진</t>
@@ -1309,7 +1306,7 @@
         <v>235</v>
       </c>
       <c r="H4" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1361,7 +1358,7 @@
         <v>237</v>
       </c>
       <c r="H6" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1387,7 +1384,7 @@
         <v>238</v>
       </c>
       <c r="H7" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1413,7 +1410,7 @@
         <v>239</v>
       </c>
       <c r="H8" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1439,7 +1436,7 @@
         <v>238</v>
       </c>
       <c r="H9" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1465,7 +1462,7 @@
         <v>237</v>
       </c>
       <c r="H10" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1517,7 +1514,7 @@
         <v>238</v>
       </c>
       <c r="H12" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1543,7 +1540,7 @@
         <v>240</v>
       </c>
       <c r="H13" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1569,7 +1566,7 @@
         <v>238</v>
       </c>
       <c r="H14" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1647,7 +1644,7 @@
         <v>238</v>
       </c>
       <c r="H17" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1673,7 +1670,7 @@
         <v>238</v>
       </c>
       <c r="H18" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1699,7 +1696,7 @@
         <v>242</v>
       </c>
       <c r="H19" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1725,7 +1722,7 @@
         <v>238</v>
       </c>
       <c r="H20" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1751,7 +1748,7 @@
         <v>243</v>
       </c>
       <c r="H21" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1777,7 +1774,7 @@
         <v>244</v>
       </c>
       <c r="H22" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1803,7 +1800,7 @@
         <v>245</v>
       </c>
       <c r="H23" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1829,7 +1826,7 @@
         <v>246</v>
       </c>
       <c r="H24" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1855,7 +1852,7 @@
         <v>238</v>
       </c>
       <c r="H25" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1881,7 +1878,7 @@
         <v>238</v>
       </c>
       <c r="H26" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1907,7 +1904,7 @@
         <v>247</v>
       </c>
       <c r="H27" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1933,7 +1930,7 @@
         <v>248</v>
       </c>
       <c r="H28" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1959,7 +1956,7 @@
         <v>249</v>
       </c>
       <c r="H29" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1985,7 +1982,7 @@
         <v>250</v>
       </c>
       <c r="H30" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2011,7 +2008,7 @@
         <v>235</v>
       </c>
       <c r="H31" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2037,7 +2034,7 @@
         <v>251</v>
       </c>
       <c r="H32" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2089,7 +2086,7 @@
         <v>250</v>
       </c>
       <c r="H34" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2193,7 +2190,7 @@
         <v>252</v>
       </c>
       <c r="H38" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2219,7 +2216,7 @@
         <v>253</v>
       </c>
       <c r="H39" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2271,7 +2268,7 @@
         <v>254</v>
       </c>
       <c r="H41" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2297,7 +2294,7 @@
         <v>238</v>
       </c>
       <c r="H42" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2323,7 +2320,7 @@
         <v>255</v>
       </c>
       <c r="H43" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2375,7 +2372,7 @@
         <v>247</v>
       </c>
       <c r="H45" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2427,7 +2424,7 @@
         <v>258</v>
       </c>
       <c r="H47" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2479,7 +2476,7 @@
         <v>248</v>
       </c>
       <c r="H49" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2505,7 +2502,7 @@
         <v>259</v>
       </c>
       <c r="H50" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2557,7 +2554,7 @@
         <v>250</v>
       </c>
       <c r="H52" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2583,7 +2580,7 @@
         <v>244</v>
       </c>
       <c r="H53" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2609,7 +2606,7 @@
         <v>260</v>
       </c>
       <c r="H54" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2635,7 +2632,7 @@
         <v>254</v>
       </c>
       <c r="H55" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2661,7 +2658,7 @@
         <v>240</v>
       </c>
       <c r="H56" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2687,7 +2684,7 @@
         <v>261</v>
       </c>
       <c r="H57" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2739,7 +2736,7 @@
         <v>247</v>
       </c>
       <c r="H59" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2869,7 +2866,7 @@
         <v>262</v>
       </c>
       <c r="H64" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2895,7 +2892,7 @@
         <v>250</v>
       </c>
       <c r="H65" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2921,7 +2918,7 @@
         <v>250</v>
       </c>
       <c r="H66" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2947,7 +2944,7 @@
         <v>263</v>
       </c>
       <c r="H67" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2973,7 +2970,7 @@
         <v>250</v>
       </c>
       <c r="H68" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2999,7 +2996,7 @@
         <v>248</v>
       </c>
       <c r="H69" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3025,7 +3022,7 @@
         <v>264</v>
       </c>
       <c r="H70" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3051,7 +3048,7 @@
         <v>248</v>
       </c>
       <c r="H71" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3100,10 +3097,10 @@
         <v>212</v>
       </c>
       <c r="G73" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="H73" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3129,7 +3126,7 @@
         <v>255</v>
       </c>
       <c r="H74" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3155,7 +3152,7 @@
         <v>248</v>
       </c>
       <c r="H75" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3178,10 +3175,10 @@
         <v>84</v>
       </c>
       <c r="G76" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H76" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3204,10 +3201,10 @@
         <v>214</v>
       </c>
       <c r="G77" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H77" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3233,7 +3230,7 @@
         <v>247</v>
       </c>
       <c r="H78" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3256,10 +3253,10 @@
         <v>215</v>
       </c>
       <c r="G79" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="H79" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3285,7 +3282,7 @@
         <v>237</v>
       </c>
       <c r="H80" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3311,7 +3308,7 @@
         <v>251</v>
       </c>
       <c r="H81" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3334,10 +3331,10 @@
         <v>90</v>
       </c>
       <c r="G82" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H82" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3363,7 +3360,7 @@
         <v>248</v>
       </c>
       <c r="H83" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3386,10 +3383,10 @@
         <v>219</v>
       </c>
       <c r="G84" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H84" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3412,10 +3409,10 @@
         <v>220</v>
       </c>
       <c r="G85" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H85" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3438,10 +3435,10 @@
         <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H86" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3493,7 +3490,7 @@
         <v>247</v>
       </c>
       <c r="H88" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3516,10 +3513,10 @@
         <v>223</v>
       </c>
       <c r="G89" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H89" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3545,7 +3542,7 @@
         <v>250</v>
       </c>
       <c r="H90" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3620,10 +3617,10 @@
         <v>225</v>
       </c>
       <c r="G93" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H93" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3649,7 +3646,7 @@
         <v>247</v>
       </c>
       <c r="H94" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3675,7 +3672,7 @@
         <v>248</v>
       </c>
       <c r="H95" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3753,7 +3750,7 @@
         <v>247</v>
       </c>
       <c r="H98" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3776,10 +3773,10 @@
         <v>230</v>
       </c>
       <c r="G99" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H99" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3802,10 +3799,10 @@
         <v>231</v>
       </c>
       <c r="G100" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H100" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3828,10 +3825,10 @@
         <v>232</v>
       </c>
       <c r="G101" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H101" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
